--- a/Shiny App/data_files/Clean_Multi_Column.xlsx
+++ b/Shiny App/data_files/Clean_Multi_Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannehue\Desktop\Data_Visualization\Shiny App\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5473750-52AC-4761-91D9-8EA2311C0E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2304D-F70F-4ABE-BD23-650EE07DF702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39960" yWindow="2232" windowWidth="13980" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Shiny App/data_files/Clean_Multi_Column.xlsx
+++ b/Shiny App/data_files/Clean_Multi_Column.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannehue\Desktop\Data_Visualization\Shiny App\data_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E2304D-F70F-4ABE-BD23-650EE07DF702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B807195-B3EE-4C51-B60A-26427CC26BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39960" yWindow="2232" windowWidth="13980" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -396,7 +396,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -440,7 +440,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -451,7 +451,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -473,7 +473,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -506,7 +506,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>4</v>
@@ -517,7 +517,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
@@ -528,7 +528,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
         <v>4</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -550,7 +550,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
         <v>4</v>
@@ -561,7 +561,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>4</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -594,7 +594,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
         <v>4</v>
@@ -605,7 +605,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -616,7 +616,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -638,7 +638,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
